--- a/data/trans_orig/P2C_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>148897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128420</v>
+        <v>128870</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171379</v>
+        <v>170094</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2548992422198984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2198445153331575</v>
+        <v>0.2206153356196549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2933865308595437</v>
+        <v>0.2911873454593888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>313</v>
@@ -765,19 +765,19 @@
         <v>326592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>296681</v>
+        <v>297129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>354197</v>
+        <v>357079</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.354093161961504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.321663654635802</v>
+        <v>0.3221491650449676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3840228178599497</v>
+        <v>0.3871472371601562</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>457</v>
@@ -786,19 +786,19 @@
         <v>475489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438646</v>
+        <v>440214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511057</v>
+        <v>514330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3156303308260728</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2911738630497949</v>
+        <v>0.2922147052117621</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3392403473839385</v>
+        <v>0.3414132528902756</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>435244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412762</v>
+        <v>414047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455721</v>
+        <v>455271</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7451007577801015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7066134691404562</v>
+        <v>0.7088126545406113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7801554846668425</v>
+        <v>0.7793846643803451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>572</v>
@@ -836,19 +836,19 @@
         <v>595741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>568136</v>
+        <v>565254</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>625652</v>
+        <v>625204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6459068380384959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6159771821400503</v>
+        <v>0.6128527628398438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.678336345364198</v>
+        <v>0.6778508349550324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1002</v>
@@ -857,19 +857,19 @@
         <v>1030985</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>995417</v>
+        <v>992144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1067828</v>
+        <v>1066260</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6843696691739272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6607596526160614</v>
+        <v>0.6585867471097244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7088261369502051</v>
+        <v>0.7077852947882378</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>345791</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>317221</v>
+        <v>315577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>379084</v>
+        <v>375685</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3208022750099644</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2942971072639834</v>
+        <v>0.2927721491801855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3516894005655806</v>
+        <v>0.3485362075105726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>368</v>
@@ -982,19 +982,19 @@
         <v>385822</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>355563</v>
+        <v>356104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>419423</v>
+        <v>416543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.364830720336887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3362176371514873</v>
+        <v>0.3367295838093413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3966032633961318</v>
+        <v>0.3938801764151689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>704</v>
@@ -1003,19 +1003,19 @@
         <v>731613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>690328</v>
+        <v>689856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>778793</v>
+        <v>776192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3426066468531323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3232731096031438</v>
+        <v>0.3230520068089232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3647005802418344</v>
+        <v>0.3634823368873081</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>732103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>698810</v>
+        <v>702209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>760673</v>
+        <v>762317</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6791977249900356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6483105994344195</v>
+        <v>0.6514637924894281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7057028927360167</v>
+        <v>0.7072278508198148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>660</v>
@@ -1053,19 +1053,19 @@
         <v>671716</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>638115</v>
+        <v>640995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>701975</v>
+        <v>701434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.635169279663113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6033967366038683</v>
+        <v>0.6061198235848311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6637823628485128</v>
+        <v>0.6632704161906587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1379</v>
@@ -1074,19 +1074,19 @@
         <v>1403819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1356639</v>
+        <v>1359240</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1445104</v>
+        <v>1445576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6573933531468676</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6352994197581656</v>
+        <v>0.6365176631126918</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6767268903968563</v>
+        <v>0.6769479931910769</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>344063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312547</v>
+        <v>313416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>374342</v>
+        <v>374332</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3067626729007095</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2786630645793605</v>
+        <v>0.2794378900982413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3337585178004346</v>
+        <v>0.3337501596757471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>330</v>
@@ -1199,19 +1199,19 @@
         <v>337444</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>310815</v>
+        <v>309276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>371485</v>
+        <v>367954</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3395012417119797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3127097615013832</v>
+        <v>0.3111616098597927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3737502886892012</v>
+        <v>0.3701970049152847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>663</v>
@@ -1220,19 +1220,19 @@
         <v>681507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>638635</v>
+        <v>638587</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>728182</v>
+        <v>723885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3221442087131059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3018788714643915</v>
+        <v>0.3018562609159172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3442070609239762</v>
+        <v>0.342176111114467</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>777531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747252</v>
+        <v>747262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>809047</v>
+        <v>808178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6932373270992905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6662414821995649</v>
+        <v>0.6662498403242525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7213369354206393</v>
+        <v>0.7205621099017587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -1270,19 +1270,19 @@
         <v>656496</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622455</v>
+        <v>625986</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683125</v>
+        <v>684664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6604987582880203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6262497113107993</v>
+        <v>0.6298029950847154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.687290238498617</v>
+        <v>0.6888383901402074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1422</v>
@@ -1291,19 +1291,19 @@
         <v>1434027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1387352</v>
+        <v>1391649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1476899</v>
+        <v>1476947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6778557912868941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6557929390760238</v>
+        <v>0.657823888885533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6981211285356085</v>
+        <v>0.6981437390840828</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>106627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90186</v>
+        <v>89178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125560</v>
+        <v>126310</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2384335288358831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2016670492350216</v>
+        <v>0.1994140492428823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2807683979344988</v>
+        <v>0.2824469328257889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1416,19 +1416,19 @@
         <v>101468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85445</v>
+        <v>84550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117945</v>
+        <v>118593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2974227680456823</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.250455337922706</v>
+        <v>0.247831080133948</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3457207778745518</v>
+        <v>0.3476198616197217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1437,19 +1437,19 @@
         <v>208096</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187165</v>
+        <v>184126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233269</v>
+        <v>234107</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2639608461136087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2374109475170536</v>
+        <v>0.2335564293960674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2958923868624665</v>
+        <v>0.2969554376686632</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>340573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>321640</v>
+        <v>320890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357014</v>
+        <v>358022</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7615664711641169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7192316020655012</v>
+        <v>0.7175530671742111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7983329507649782</v>
+        <v>0.8005859507571177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>238</v>
@@ -1487,19 +1487,19 @@
         <v>239690</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223213</v>
+        <v>222565</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>255713</v>
+        <v>256608</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7025772319543176</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6542792221254483</v>
+        <v>0.6523801383802792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.749544662077294</v>
+        <v>0.7521689198660522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>570</v>
@@ -1508,19 +1508,19 @@
         <v>580262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>555089</v>
+        <v>554251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>601193</v>
+        <v>604232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7360391538863913</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7041076131375335</v>
+        <v>0.7030445623313366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7625890524829464</v>
+        <v>0.7664435706039322</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>945379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>893328</v>
+        <v>898582</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1003409</v>
+        <v>1004706</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.292611773209389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2765010915816265</v>
+        <v>0.2781275205538654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3105733563719331</v>
+        <v>0.3109746163926014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1112</v>
@@ -1633,19 +1633,19 @@
         <v>1151326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1097812</v>
+        <v>1096273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1209779</v>
+        <v>1204578</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3473112945688083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3311680855397074</v>
+        <v>0.3307037670679173</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3649442094051478</v>
+        <v>0.3633753177112801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2029</v>
@@ -1654,19 +1654,19 @@
         <v>2096705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2027395</v>
+        <v>2021538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2172429</v>
+        <v>2171020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.320313087029591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3097246528033425</v>
+        <v>0.308829831381446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3318814249215903</v>
+        <v>0.3316661543860032</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2285450</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2227420</v>
+        <v>2226123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2337501</v>
+        <v>2332247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.707388226790611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6894266436280668</v>
+        <v>0.6890253836073981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7234989084183735</v>
+        <v>0.7218724794461345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2122</v>
@@ -1704,19 +1704,19 @@
         <v>2163643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2105190</v>
+        <v>2110391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2217157</v>
+        <v>2218696</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6526887054311917</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6350557905948522</v>
+        <v>0.6366246822887198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6688319144602926</v>
+        <v>0.6692962329320826</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4373</v>
@@ -1725,19 +1725,19 @@
         <v>4449093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4373369</v>
+        <v>4374778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4518403</v>
+        <v>4524260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.679686912970409</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6681185750784097</v>
+        <v>0.6683338456139969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6902753471966575</v>
+        <v>0.6911701686185541</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>534297</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>502155</v>
+        <v>500810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>572756</v>
+        <v>568463</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5118107521715298</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4810211199850374</v>
+        <v>0.4797332257047857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5486512267885418</v>
+        <v>0.5445382292904878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>584</v>
@@ -2090,19 +2090,19 @@
         <v>628647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>595741</v>
+        <v>592362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>665819</v>
+        <v>662797</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5613281226633057</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5319455686542073</v>
+        <v>0.5289285337332117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5945198522144493</v>
+        <v>0.5918210436115073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1085</v>
@@ -2111,19 +2111,19 @@
         <v>1162944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1114962</v>
+        <v>1113541</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1209225</v>
+        <v>1209700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5374389473964611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5152647409554379</v>
+        <v>0.5146080089344257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5588271143936906</v>
+        <v>0.5590466745537485</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>509638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>471179</v>
+        <v>475472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541780</v>
+        <v>543125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4881892478284702</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4513487732114582</v>
+        <v>0.4554617707095119</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5189788800149626</v>
+        <v>0.5202667742952142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>447</v>
@@ -2161,19 +2161,19 @@
         <v>491281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>454109</v>
+        <v>457131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524187</v>
+        <v>527566</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4386718773366943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4054801477855507</v>
+        <v>0.4081789563884924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4680544313457926</v>
+        <v>0.4710714662667883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>924</v>
@@ -2182,19 +2182,19 @@
         <v>1000919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>954638</v>
+        <v>954163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1048901</v>
+        <v>1050322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4625610526035389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4411728856063092</v>
+        <v>0.4409533254462506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.484735259044562</v>
+        <v>0.4853919910655732</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>462049</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>431885</v>
+        <v>427082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>495181</v>
+        <v>492463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4728913327568363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4420188332829304</v>
+        <v>0.4371031039597939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5067999025912758</v>
+        <v>0.5040183476678981</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>533</v>
@@ -2307,19 +2307,19 @@
         <v>571719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538688</v>
+        <v>537820</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>607307</v>
+        <v>605616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5224696986187386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4922839860270205</v>
+        <v>0.49149113878215</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5549923102674666</v>
+        <v>0.5534467638455586</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>970</v>
@@ -2328,19 +2328,19 @@
         <v>1033768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>983718</v>
+        <v>983412</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1078245</v>
+        <v>1079177</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4990830067629454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4749199424968873</v>
+        <v>0.4747718307768269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5205557657361395</v>
+        <v>0.5210054831260769</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>515024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481892</v>
+        <v>484610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545188</v>
+        <v>549991</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5271086672431636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4932000974087243</v>
+        <v>0.4959816523321019</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5579811667170698</v>
+        <v>0.5628968960402061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>487</v>
@@ -2378,19 +2378,19 @@
         <v>522543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>486955</v>
+        <v>488646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555574</v>
+        <v>556442</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4775303013812615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4450076897325332</v>
+        <v>0.4465532361544414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5077160139729792</v>
+        <v>0.50850886121785</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>974</v>
@@ -2399,19 +2399,19 @@
         <v>1037567</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993090</v>
+        <v>992158</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1087617</v>
+        <v>1087923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5009169932370546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4794442342638605</v>
+        <v>0.4789945168739231</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5250800575031127</v>
+        <v>0.5252281692231731</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>330258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>302249</v>
+        <v>300840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>361242</v>
+        <v>364614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3731248646621862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3414803116589137</v>
+        <v>0.3398882006771516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4081298816708945</v>
+        <v>0.4119401708640705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>394</v>
@@ -2524,19 +2524,19 @@
         <v>422701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>396206</v>
+        <v>394474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>454032</v>
+        <v>453341</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4826483557945691</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4523947429805922</v>
+        <v>0.450417268486078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5184219790624749</v>
+        <v>0.517632793400004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>709</v>
@@ -2545,19 +2545,19 @@
         <v>752960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>709227</v>
+        <v>710963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>795578</v>
+        <v>794882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.427596792857577</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4027616338019628</v>
+        <v>0.4037474444693985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4517991129415986</v>
+        <v>0.4514040514208768</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>554857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>523873</v>
+        <v>520501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>582866</v>
+        <v>584275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6268751353378138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5918701183291056</v>
+        <v>0.5880598291359295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6585196883410864</v>
+        <v>0.6601117993228481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>427</v>
@@ -2595,19 +2595,19 @@
         <v>453095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>421764</v>
+        <v>422455</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>479590</v>
+        <v>481322</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.517351644205431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4815780209375251</v>
+        <v>0.4823672065999959</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5476052570194077</v>
+        <v>0.5495827315139219</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>942</v>
@@ -2616,19 +2616,19 @@
         <v>1007951</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>965333</v>
+        <v>966029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1051684</v>
+        <v>1049948</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.572403207142423</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5482008870584013</v>
+        <v>0.5485959485791231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5972383661980372</v>
+        <v>0.5962525555306014</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>203581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181192</v>
+        <v>179752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>229277</v>
+        <v>227993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4047153778261289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3602055522914827</v>
+        <v>0.3573432794889205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4557982048843709</v>
+        <v>0.4532451450828007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -2741,19 +2741,19 @@
         <v>205658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184960</v>
+        <v>183518</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>227805</v>
+        <v>230045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4542568193585853</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4085390452124666</v>
+        <v>0.4053539802819368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5031750581237544</v>
+        <v>0.5081220964464895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>377</v>
@@ -2762,19 +2762,19 @@
         <v>409239</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>377094</v>
+        <v>375232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>441610</v>
+        <v>442092</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4281827908030615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3945492821302731</v>
+        <v>0.3926014502182347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.462052048883108</v>
+        <v>0.4625561537152059</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>299442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273746</v>
+        <v>275030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321831</v>
+        <v>323271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5952846221738711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5442017951156291</v>
+        <v>0.5467548549171993</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6397944477085172</v>
+        <v>0.6426567205110796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -2812,19 +2812,19 @@
         <v>247078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224931</v>
+        <v>222691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267776</v>
+        <v>269218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5457431806414148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4968249418762456</v>
+        <v>0.4918779035535106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5914609547875334</v>
+        <v>0.5946460197180633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -2833,19 +2833,19 @@
         <v>546519</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514148</v>
+        <v>513666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>578664</v>
+        <v>580526</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5718172091969386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5379479511168923</v>
+        <v>0.5374438462847942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6054507178697272</v>
+        <v>0.6073985497817654</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1530186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1472994</v>
+        <v>1477421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1594406</v>
+        <v>1594487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4488473241133896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4320712842246847</v>
+        <v>0.4333699793152101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4676849506691744</v>
+        <v>0.4677087783717907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1701</v>
@@ -2958,19 +2958,19 @@
         <v>1828726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1769160</v>
+        <v>1763212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1891157</v>
+        <v>1886996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5161922910507927</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4993787180531948</v>
+        <v>0.4976997668719043</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.533814635628162</v>
+        <v>0.5326402588825213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3141</v>
@@ -2979,19 +2979,19 @@
         <v>3358911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3273727</v>
+        <v>3268805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3446928</v>
+        <v>3451239</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.483166806996241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4709133772192315</v>
+        <v>0.4702053123516222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4958276019335627</v>
+        <v>0.4964478211612584</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1878959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1814739</v>
+        <v>1814658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1936151</v>
+        <v>1931724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5511526758866104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5323150493308256</v>
+        <v>0.5322912216282094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5679287157753153</v>
+        <v>0.56663002068479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1583</v>
@@ -3029,19 +3029,19 @@
         <v>1713996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1651565</v>
+        <v>1655726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1773562</v>
+        <v>1779510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4838077089492073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4661853643718379</v>
+        <v>0.4673597411174787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5006212819468049</v>
+        <v>0.5023002331280956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3336</v>
@@ -3050,19 +3050,19 @@
         <v>3592956</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3504939</v>
+        <v>3500628</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3678140</v>
+        <v>3683062</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5168331930037591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5041723980664373</v>
+        <v>0.5035521788387416</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5290866227807686</v>
+        <v>0.5297946876483778</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>408231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>376158</v>
+        <v>374825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>441237</v>
+        <v>439933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3619081881848749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3334740062742902</v>
+        <v>0.3322921867235933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3911688831433061</v>
+        <v>0.3900125289583194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>536</v>
@@ -3415,19 +3415,19 @@
         <v>557173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>524271</v>
+        <v>518647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>592579</v>
+        <v>593374</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4423549062785269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4162328670558623</v>
+        <v>0.411767914531413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4704649083901223</v>
+        <v>0.4710959964964295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>924</v>
@@ -3436,19 +3436,19 @@
         <v>965404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>924541</v>
+        <v>916919</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1020177</v>
+        <v>1014708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4043480075217717</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3872329600159248</v>
+        <v>0.3840403810189285</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4272889405477192</v>
+        <v>0.4249984644577682</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>719766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>686760</v>
+        <v>688064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>751839</v>
+        <v>753172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6380918118151251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6088311168566939</v>
+        <v>0.6099874710416806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6665259937257099</v>
+        <v>0.6677078132764067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>652</v>
@@ -3486,19 +3486,19 @@
         <v>702388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>666982</v>
+        <v>666187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>735290</v>
+        <v>740914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5576450937214731</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5295350916098776</v>
+        <v>0.5289040035035705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5837671329441377</v>
+        <v>0.5882320854685869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1330</v>
@@ -3507,19 +3507,19 @@
         <v>1422154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1367381</v>
+        <v>1372850</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1463017</v>
+        <v>1470639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5956519924782283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5727110594522807</v>
+        <v>0.5750015355422313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6127670399840753</v>
+        <v>0.6159596189810714</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>279010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250780</v>
+        <v>252085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>307504</v>
+        <v>310608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3070010339810611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2759389470774657</v>
+        <v>0.2773747953856763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3383535716074154</v>
+        <v>0.3417691462598355</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>373</v>
@@ -3632,19 +3632,19 @@
         <v>388404</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>357275</v>
+        <v>356289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>421298</v>
+        <v>419490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3859053112242014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3549767537368453</v>
+        <v>0.3539970288684146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4185876617758554</v>
+        <v>0.4167914850410265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>641</v>
@@ -3653,19 +3653,19 @@
         <v>667414</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>628190</v>
+        <v>623683</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>712190</v>
+        <v>710583</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.348464618126071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3279852837254487</v>
+        <v>0.3256320216866099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3718424968016474</v>
+        <v>0.3710033423538712</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>629815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>601321</v>
+        <v>598217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>658045</v>
+        <v>656740</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6929989660189388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6616464283925847</v>
+        <v>0.6582308537401648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7240610529225344</v>
+        <v>0.7226252046143237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -3703,19 +3703,19 @@
         <v>618071</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>585177</v>
+        <v>586985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>649200</v>
+        <v>650186</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6140946887757986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5814123382241445</v>
+        <v>0.5832085149589735</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6450232462631547</v>
+        <v>0.6460029711315854</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1191</v>
@@ -3724,19 +3724,19 @@
         <v>1247886</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1203110</v>
+        <v>1204717</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1287110</v>
+        <v>1291617</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.651535381873929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6281575031983525</v>
+        <v>0.6289966576461289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6720147162745513</v>
+        <v>0.6743679783133902</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>243891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219101</v>
+        <v>220158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272961</v>
+        <v>271207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2960714159199639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2659768278522763</v>
+        <v>0.2672606757395082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3313603718840244</v>
+        <v>0.329231120107024</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>248</v>
@@ -3849,19 +3849,19 @@
         <v>257764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>231621</v>
+        <v>231304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285189</v>
+        <v>286140</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3342988151265274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3003930890171213</v>
+        <v>0.2999828266069635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3698671362488142</v>
+        <v>0.371100171972212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>480</v>
@@ -3870,19 +3870,19 @@
         <v>501656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>464034</v>
+        <v>464465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>539539</v>
+        <v>542463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3145535052821135</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2909635043860195</v>
+        <v>0.29123395825282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3383078777796406</v>
+        <v>0.340141193669302</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>579868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>550798</v>
+        <v>552552</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>604658</v>
+        <v>603601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7039285840800361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6686396281159755</v>
+        <v>0.6707688798929763</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7340231721477235</v>
+        <v>0.7327393242604919</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>480</v>
@@ -3920,19 +3920,19 @@
         <v>513295</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485870</v>
+        <v>484919</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539438</v>
+        <v>539755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6657011848734726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6301328637511857</v>
+        <v>0.628899828027788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6996069109828786</v>
+        <v>0.7000171733930364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1035</v>
@@ -3941,19 +3941,19 @@
         <v>1093162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1055279</v>
+        <v>1052355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1130784</v>
+        <v>1130353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6854464947178865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.661692122220359</v>
+        <v>0.659858806330698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7090364956139804</v>
+        <v>0.7087660417471806</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>125528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107097</v>
+        <v>106967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146401</v>
+        <v>146662</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2477356858740388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2113604121797971</v>
+        <v>0.2111056322510366</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2889289912525585</v>
+        <v>0.2894443202773818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -4066,19 +4066,19 @@
         <v>166867</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146018</v>
+        <v>146273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>187385</v>
+        <v>188302</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.340754250116819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2981805331360187</v>
+        <v>0.2987010280610813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3826545758626885</v>
+        <v>0.3845273221446682</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -4087,19 +4087,19 @@
         <v>292394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>262698</v>
+        <v>264561</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>321337</v>
+        <v>323544</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2934512959741382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2636477212035446</v>
+        <v>0.2655173717428462</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3224989239996425</v>
+        <v>0.3247132121076975</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>381173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360300</v>
+        <v>360039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>399604</v>
+        <v>399734</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7522643141259612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7110710087474414</v>
+        <v>0.7105556797226183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7886395878202029</v>
+        <v>0.7888943677489634</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -4137,19 +4137,19 @@
         <v>322831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302313</v>
+        <v>301396</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>343680</v>
+        <v>343425</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.659245749883181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6173454241373114</v>
+        <v>0.6154726778553319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7018194668639813</v>
+        <v>0.7012989719389188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>653</v>
@@ -4158,19 +4158,19 @@
         <v>704004</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>675061</v>
+        <v>672854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733700</v>
+        <v>731837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7065487040258618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6775010760003576</v>
+        <v>0.6752867878923027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7363522787964556</v>
+        <v>0.7344826282571539</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1056661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1004774</v>
+        <v>1001840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1108307</v>
+        <v>1108886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3138023457404766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2983932841471912</v>
+        <v>0.2975219539148519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3291399977822435</v>
+        <v>0.3293118607584328</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1313</v>
@@ -4283,19 +4283,19 @@
         <v>1370207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1311915</v>
+        <v>1311011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1432776</v>
+        <v>1431315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3885138256261451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3719853750645982</v>
+        <v>0.371729138976188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4062547208730412</v>
+        <v>0.4058403982858568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2318</v>
@@ -4304,19 +4304,19 @@
         <v>2426869</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2343499</v>
+        <v>2353714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2505773</v>
+        <v>2505510</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3520223957370785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3399294847434691</v>
+        <v>0.3414111323612595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3634675727084382</v>
+        <v>0.3634295088584438</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2310621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2258975</v>
+        <v>2258396</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2362508</v>
+        <v>2365442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6861976542595235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6708600022177568</v>
+        <v>0.6706881392415672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7016067158528089</v>
+        <v>0.7024780460851482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2009</v>
@@ -4354,19 +4354,19 @@
         <v>2156585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2094016</v>
+        <v>2095477</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2214877</v>
+        <v>2215781</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6114861743738549</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5937452791269588</v>
+        <v>0.5941596017141434</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6280146249354019</v>
+        <v>0.628270861023812</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4209</v>
@@ -4375,19 +4375,19 @@
         <v>4467206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4388302</v>
+        <v>4388565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4550576</v>
+        <v>4540361</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6479776042629215</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6365324272915623</v>
+        <v>0.6365704911415566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6600705152565312</v>
+        <v>0.6585888676387408</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>100355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81519</v>
+        <v>80518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122143</v>
+        <v>121033</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2012165126732777</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1634510046201232</v>
+        <v>0.1614433213515486</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2449036540677925</v>
+        <v>0.2426775652820952</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>222</v>
@@ -4740,19 +4740,19 @@
         <v>158895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138373</v>
+        <v>140872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178149</v>
+        <v>179312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2548114869595752</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2219016008430552</v>
+        <v>0.2259082266569812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2856868734330748</v>
+        <v>0.2875519747520755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -4761,19 +4761,19 @@
         <v>259250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229870</v>
+        <v>233754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>286697</v>
+        <v>289751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.230994811306639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2048170961313087</v>
+        <v>0.208277440092325</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2554503288997718</v>
+        <v>0.2581718862537552</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>398384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>376596</v>
+        <v>377706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417220</v>
+        <v>418221</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7987834873267223</v>
+        <v>0.7987834873267224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7550963459322073</v>
+        <v>0.7573224347179048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8365489953798768</v>
+        <v>0.8385566786484513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>639</v>
@@ -4811,19 +4811,19 @@
         <v>464685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>445431</v>
+        <v>444268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>485207</v>
+        <v>482708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7451885130404247</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7143131265669254</v>
+        <v>0.7124480252479236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7780983991569449</v>
+        <v>0.7740917733430188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1004</v>
@@ -4832,19 +4832,19 @@
         <v>863070</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>835623</v>
+        <v>832569</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>892450</v>
+        <v>888566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.769005188693361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7445496711002282</v>
+        <v>0.7418281137462448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7951829038686912</v>
+        <v>0.7917225599076749</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>178033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153545</v>
+        <v>154799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205529</v>
+        <v>204638</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1854242248939965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1599196572359549</v>
+        <v>0.1612262702830753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2140624065201246</v>
+        <v>0.2131345385235766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>376</v>
@@ -4957,19 +4957,19 @@
         <v>259991</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235862</v>
+        <v>236935</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>284209</v>
+        <v>285746</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2329984667918456</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2113744906991988</v>
+        <v>0.212336121259976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2547019435473305</v>
+        <v>0.256079641115835</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>557</v>
@@ -4978,19 +4978,19 @@
         <v>438024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>405722</v>
+        <v>403773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>479049</v>
+        <v>473125</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2109955367153433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1954357405758007</v>
+        <v>0.1944968064139626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2307574104176324</v>
+        <v>0.2279035567599384</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>782104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>754608</v>
+        <v>755499</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>806592</v>
+        <v>805338</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8145757751060035</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7859375934798755</v>
+        <v>0.7868654614764233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8400803427640451</v>
+        <v>0.8387737297169248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1231</v>
@@ -5028,19 +5028,19 @@
         <v>855858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>831640</v>
+        <v>830103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>879987</v>
+        <v>878914</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7670015332081543</v>
+        <v>0.7670015332081545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7452980564526694</v>
+        <v>0.743920358884165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7886255093008012</v>
+        <v>0.787663878740024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1960</v>
@@ -5049,19 +5049,19 @@
         <v>1637962</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1596937</v>
+        <v>1602861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1670264</v>
+        <v>1672213</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7890044632846568</v>
+        <v>0.7890044632846566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7692425895823682</v>
+        <v>0.7720964432400617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8045642594241993</v>
+        <v>0.8055031935860373</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>129473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108706</v>
+        <v>106373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152567</v>
+        <v>154502</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.123722505598802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.103877448639974</v>
+        <v>0.1016487219641341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1457908082559805</v>
+        <v>0.1476401883664113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -5174,19 +5174,19 @@
         <v>178158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155896</v>
+        <v>156500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200654</v>
+        <v>200245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1700557219705229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1488062331250611</v>
+        <v>0.1493834615341504</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1915294599988491</v>
+        <v>0.1911389110414575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>372</v>
@@ -5195,19 +5195,19 @@
         <v>307631</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277165</v>
+        <v>279695</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>341876</v>
+        <v>343375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1469019725815739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1323540308373549</v>
+        <v>0.1335618974241062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1632553120668381</v>
+        <v>0.1639709050331819</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>917006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>893912</v>
+        <v>891977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>937773</v>
+        <v>940106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.876277494401198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8542091917440188</v>
+        <v>0.8523598116335881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8961225513600259</v>
+        <v>0.8983512780358658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1267</v>
@@ -5245,19 +5245,19 @@
         <v>869484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>846988</v>
+        <v>847397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>891746</v>
+        <v>891142</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.829944278029477</v>
+        <v>0.8299442780294772</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8084705400011508</v>
+        <v>0.8088610889585426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8511937668749388</v>
+        <v>0.8506165384658495</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2173</v>
@@ -5266,19 +5266,19 @@
         <v>1786490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1752245</v>
+        <v>1750746</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1816956</v>
+        <v>1814426</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8530980274184259</v>
+        <v>0.8530980274184261</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8367446879331619</v>
+        <v>0.836029094966818</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8676459691626447</v>
+        <v>0.8664381025758938</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>66591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51691</v>
+        <v>50817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84723</v>
+        <v>84044</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06823340364408395</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05296549214180003</v>
+        <v>0.05207046104779213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08681251754034275</v>
+        <v>0.08611727585271538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -5391,19 +5391,19 @@
         <v>71389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57467</v>
+        <v>58401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85283</v>
+        <v>87132</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0784200091260823</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0631271453803879</v>
+        <v>0.06415212790840616</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09368213541627632</v>
+        <v>0.09571275833058303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -5412,19 +5412,19 @@
         <v>137980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113890</v>
+        <v>117256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161153</v>
+        <v>163361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07314961643681188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06037847620807296</v>
+        <v>0.06216285285564892</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08543436649697704</v>
+        <v>0.08660531153236628</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>909338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>891206</v>
+        <v>891885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>924238</v>
+        <v>925112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9317665963559161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9131874824596571</v>
+        <v>0.9138827241472849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9470345078582</v>
+        <v>0.947929538952208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1220</v>
@@ -5462,19 +5462,19 @@
         <v>838956</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>825062</v>
+        <v>823213</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>852878</v>
+        <v>851944</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9215799908739177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9063178645837235</v>
+        <v>0.904287241669417</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.936872854619612</v>
+        <v>0.9358478720915938</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2096</v>
@@ -5483,19 +5483,19 @@
         <v>1748294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1725121</v>
+        <v>1722913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1772384</v>
+        <v>1769018</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9268503835631883</v>
+        <v>0.9268503835631882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9145656335030232</v>
+        <v>0.9133946884676336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9396215237919272</v>
+        <v>0.9378371471443511</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>474451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>429564</v>
+        <v>431573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>520053</v>
+        <v>519634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1362862492305925</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1233923377723785</v>
+        <v>0.1239695680032966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1493853827370454</v>
+        <v>0.1492651660049314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>951</v>
@@ -5608,19 +5608,19 @@
         <v>668433</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>628953</v>
+        <v>628433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>709726</v>
+        <v>711276</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1807838995551614</v>
+        <v>0.1807838995551615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1701060782249778</v>
+        <v>0.1699653785162186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1919520004146317</v>
+        <v>0.1923710664013696</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1416</v>
@@ -5629,19 +5629,19 @@
         <v>1142885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1082116</v>
+        <v>1085075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1199076</v>
+        <v>1207946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1592049278012065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1507397549754208</v>
+        <v>0.1511520453984099</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1670324212582504</v>
+        <v>0.1682680813232862</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3006833</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2961231</v>
+        <v>2961650</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3051720</v>
+        <v>3049711</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8637137507694076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8506146172629544</v>
+        <v>0.8507348339950686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8766076622276212</v>
+        <v>0.8760304319967033</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4357</v>
@@ -5679,19 +5679,19 @@
         <v>3028983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2987690</v>
+        <v>2986140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3068463</v>
+        <v>3068983</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8192161004448384</v>
+        <v>0.8192161004448386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8080479995853682</v>
+        <v>0.8076289335986304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8298939217750221</v>
+        <v>0.8300346214837814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7233</v>
@@ -5700,19 +5700,19 @@
         <v>6035816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5979625</v>
+        <v>5970755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6096585</v>
+        <v>6093626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8407950721987935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8329675787417496</v>
+        <v>0.8317319186767138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8492602450245793</v>
+        <v>0.8488479546015899</v>
       </c>
     </row>
     <row r="18">
